--- a/fbref/scout_summary.xlsx
+++ b/fbref/scout_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,168 +468,288 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Per 90 Minutes_xAG</t>
+          <t>Per 90 Minutes_G-PK</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06</v>
+        <v>0.38</v>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Per 90 Minutes_xAG</t>
+          <t>Non-Penalty Goals per 90</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Progression_PrgP_p90</t>
+          <t>Per 90 Minutes_npxG</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.137931034482759</v>
+        <v>0.26</v>
       </c>
       <c r="C3" t="n">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>4.125</v>
+        <v>0.27</v>
       </c>
       <c r="E3" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Progression_PrgP_p90</t>
+          <t>Non-Penalty Expected Goals per 90</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Progression_PrgC_p90</t>
+          <t>Per 90 Minutes_Ast</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.58</v>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>0.375</v>
+        <v>0.31</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Progression_PrgC_p90</t>
+          <t>Assists per 90</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KP_p90</t>
+          <t>Per 90 Minutes_xAG</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.51</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n">
-        <v>0.625</v>
+        <v>0.22</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Key Passes</t>
+          <t>Expected Assisted Goals per 90</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Challenges_Tkl%</t>
+          <t>Progression_PrgP_p90</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>9.743589743589745</v>
       </c>
       <c r="C6" t="n">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>7.225130890052355</v>
       </c>
       <c r="E6" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tackle Success %</t>
+          <t>Progressive Passes per 90</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Int_p90</t>
+          <t>Progression_PrgC_p90</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.724137931034483</v>
+        <v>3.653846153846154</v>
       </c>
       <c r="C7" t="n">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>4.869109947643978</v>
       </c>
       <c r="E7" t="n">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Interceptions</t>
+          <t>Progressive Carries per 90</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Progression_PrgR_p90</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8.205128205128206</v>
+      </c>
+      <c r="C8" t="n">
+        <v>74</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.528795811518323</v>
+      </c>
+      <c r="E8" t="n">
+        <v>85</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Progressive Runs per 90</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>KP_p90</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3.461538461538462</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.198952879581152</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Key Passes per 90</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Total_Cmp%</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>70</v>
+      </c>
+      <c r="D10" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>73</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pass Completion %</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Tackles_Tkl_p90</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.465968586387435</v>
+      </c>
+      <c r="E11" t="n">
+        <v>67</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tackles per 90</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Int_p90</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="C12" t="n">
+        <v>52</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3664921465968586</v>
+      </c>
+      <c r="E12" t="n">
+        <v>49</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Interceptions per 90</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>SCA_SCA90</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="C8" t="n">
-        <v>33</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>SCA_SCA90</t>
+      <c r="B13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="E13" t="n">
+        <v>98</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Shot Creating Actions per 90</t>
         </is>
       </c>
     </row>

--- a/fbref/scout_summary.xlsx
+++ b/fbref/scout_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,288 +468,240 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Per 90 Minutes_G-PK</t>
+          <t>Total_Cmp%</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.38</v>
+        <v>82.3</v>
       </c>
       <c r="C2" t="n">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>77.5</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Non-Penalty Goals per 90</t>
+          <t>Pass Completion %</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Per 90 Minutes_npxG</t>
+          <t>Total_Att_p90</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.26</v>
+        <v>51.50537634408602</v>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>0.27</v>
+        <v>49.39271255060729</v>
       </c>
       <c r="E3" t="n">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Non-Penalty Expected Goals per 90</t>
+          <t>Passes Attempted per 90</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Per 90 Minutes_Ast</t>
+          <t>Challenges_Tkl%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.58</v>
+        <v>64.7</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D4" t="n">
-        <v>0.31</v>
+        <v>53.5</v>
       </c>
       <c r="E4" t="n">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Assists per 90</t>
+          <t>Tackle Success %</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Per 90 Minutes_xAG</t>
+          <t>Challenges_Att_p90</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.51</v>
+        <v>1.827956989247312</v>
       </c>
       <c r="C5" t="n">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>0.22</v>
+        <v>1.740890688259109</v>
       </c>
       <c r="E5" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Expected Assisted Goals per 90</t>
+          <t>Dribbles Challenged per 90</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Progression_PrgP_p90</t>
+          <t>Err_p90</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.743589743589745</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>7.225130890052355</v>
+        <v>0.04048582995951417</v>
       </c>
       <c r="E6" t="n">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Progressive Passes per 90</t>
+          <t>Errors Leading to Shots per 90</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Progression_PrgC_p90</t>
+          <t>Int_p90</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.653846153846154</v>
+        <v>1.075268817204301</v>
       </c>
       <c r="C7" t="n">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
-        <v>4.869109947643978</v>
+        <v>0.8906882591093118</v>
       </c>
       <c r="E7" t="n">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Progressive Carries per 90</t>
+          <t>Interceptions per 90</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Progression_PrgR_p90</t>
+          <t>Blocks_Blocks_p90</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.205128205128206</v>
+        <v>1.612903225806452</v>
       </c>
       <c r="C8" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8" t="n">
-        <v>9.528795811518323</v>
+        <v>1.45748987854251</v>
       </c>
       <c r="E8" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Progressive Runs per 90</t>
+          <t>Blocks per 90</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KP_p90</t>
+          <t>Clr_p90</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.461538461538462</v>
+        <v>2.795698924731183</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>2.198952879581152</v>
+        <v>3.076923076923077</v>
       </c>
       <c r="E9" t="n">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Key Passes per 90</t>
+          <t>Clearances per 90</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total_Cmp%</t>
+          <t>Aerial Duels_Won%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.59999999999999</v>
+        <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D10" t="n">
-        <v>77.59999999999999</v>
+        <v>56.1</v>
       </c>
       <c r="E10" t="n">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Pass Completion %</t>
+          <t>Aerial Duels Won %</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tackles_Tkl_p90</t>
+          <t>Aerial Duels_Won_p90</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7692307692307693</v>
+        <v>1.075268817204301</v>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D11" t="n">
-        <v>1.465968586387435</v>
+        <v>1.497975708502024</v>
       </c>
       <c r="E11" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tackles per 90</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Int_p90</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="C12" t="n">
-        <v>52</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.3664921465968586</v>
-      </c>
-      <c r="E12" t="n">
-        <v>49</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Interceptions per 90</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SCA_SCA90</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="E13" t="n">
-        <v>98</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Shot Creating Actions per 90</t>
+          <t>Aerial Duels Won per 90</t>
         </is>
       </c>
     </row>

--- a/fbref/scout_summary.xlsx
+++ b/fbref/scout_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,120 +468,120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Total_Cmp%</t>
+          <t>Per 90 Minutes_xAG</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82.3</v>
+        <v>0.22</v>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D2" t="n">
-        <v>77.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pass Completion %</t>
+          <t>Expected Assisted Goals per 90</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total_Att_p90</t>
+          <t>Progression_PrgP_p90</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.50537634408602</v>
+        <v>6.870748299319728</v>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D3" t="n">
-        <v>49.39271255060729</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Passes Attempted per 90</t>
+          <t>Progressive Passes per 90</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Challenges_Tkl%</t>
+          <t>Progression_PrgC_p90</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.7</v>
+        <v>1.156462585034014</v>
       </c>
       <c r="C4" t="n">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>53.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tackle Success %</t>
+          <t>Progressive Carries per 90</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Challenges_Att_p90</t>
+          <t>KP_p90</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.827956989247312</v>
+        <v>1.496598639455782</v>
       </c>
       <c r="C5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>1.740890688259109</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dribbles Challenged per 90</t>
+          <t>Key Passes per 90</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Err_p90</t>
+          <t>Challenges_Tkl%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>65.8</v>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04048582995951417</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Errors Leading to Shots per 90</t>
+          <t>Tackle Success %</t>
         </is>
       </c>
     </row>
@@ -592,16 +592,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.075268817204301</v>
+        <v>1.972789115646259</v>
       </c>
       <c r="C7" t="n">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8906882591093118</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -612,96 +612,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Blocks_Blocks_p90</t>
+          <t>SCA_SCA90</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.612903225806452</v>
+        <v>3.71</v>
       </c>
       <c r="C8" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D8" t="n">
-        <v>1.45748987854251</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blocks per 90</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Clr_p90</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2.795698924731183</v>
-      </c>
-      <c r="C9" t="n">
-        <v>27</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.076923076923077</v>
-      </c>
-      <c r="E9" t="n">
-        <v>52</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Clearances per 90</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Aerial Duels_Won%</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>50</v>
-      </c>
-      <c r="C10" t="n">
-        <v>46</v>
-      </c>
-      <c r="D10" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>59</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Aerial Duels Won %</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Aerial Duels_Won_p90</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1.075268817204301</v>
-      </c>
-      <c r="C11" t="n">
-        <v>41</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.497975708502024</v>
-      </c>
-      <c r="E11" t="n">
-        <v>55</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Aerial Duels Won per 90</t>
+          <t>Shot Creating Actions per 90</t>
         </is>
       </c>
     </row>
